--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB388DE3-D626-2142-97C9-0BC41A5DD3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53407D26-5A02-7F47-9E59-47F6DF18AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="2040" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="840" yWindow="1440" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>lgIPrRQkEV0</t>
   </si>
 </sst>
 </file>
@@ -674,6 +677,9 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="G2" t="s">
         <v>51</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53407D26-5A02-7F47-9E59-47F6DF18AA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC47BAE-A9CB-C740-90D3-C4B34F45FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1440" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -190,46 +190,40 @@
     <t>Linear Regression</t>
   </si>
   <si>
+    <t>/chapters/chapter1.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter2.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter3.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter4.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter5.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter6.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter7.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter8.html</t>
+  </si>
+  <si>
+    <t>/chapters/chapter9.html</t>
+  </si>
+  <si>
+    <t>/chapters/bayesian.html</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
     <t>00-Intro_to_Course</t>
-  </si>
-  <si>
-    <t>01-Intro_to_Data</t>
-  </si>
-  <si>
-    <t>/chapters/chapter1.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter2.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter3.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter4.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter5.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter6.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter7.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter8.html</t>
-  </si>
-  <si>
-    <t>/chapters/chapter9.html</t>
-  </si>
-  <si>
-    <t>/chapters/bayesian.html</t>
-  </si>
-  <si>
-    <t>Video</t>
-  </si>
-  <si>
-    <t>lgIPrRQkEV0</t>
   </si>
 </sst>
 </file>
@@ -623,7 +617,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
@@ -677,11 +671,8 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -698,10 +689,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -718,7 +706,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8"/>
       <c r="H4" s="5"/>
@@ -737,7 +725,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -755,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="8"/>
       <c r="H6" s="4"/>
@@ -774,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -792,7 +780,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -810,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -828,7 +816,7 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -846,7 +834,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -864,7 +852,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -882,7 +870,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -924,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H16" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC47BAE-A9CB-C740-90D3-C4B34F45FB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C41E507-6A45-2144-BB0F-0682739D199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1440" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="11780" yWindow="6020" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,13 @@
   </si>
   <si>
     <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>zS8AQP0Gd_w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rstudio Cheatsheets: [https://posit.co/resources/cheatsheets/](https://posit.co/resources/cheatsheets/)  
+</t>
   </si>
 </sst>
 </file>
@@ -617,7 +624,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45532</v>
       </c>
@@ -671,8 +678,14 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="G2" t="s">
         <v>62</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C41E507-6A45-2144-BB0F-0682739D199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8FB03-D35B-2042-9297-220236456289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11780" yWindow="6020" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -229,8 +229,8 @@
     <t>zS8AQP0Gd_w</t>
   </si>
   <si>
-    <t xml:space="preserve">Rstudio Cheatsheets: [https://posit.co/resources/cheatsheets/](https://posit.co/resources/cheatsheets/)  
-</t>
+    <t>[Rstudio Cheatsheets](https://posit.co/resources/cheatsheets/)  
+[How to read R help pages](https://socviz.co/appendix.html#a-little-more-about-r)</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E8FB03-D35B-2042-9297-220236456289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD88382-E8B9-CB44-BBBE-3ADAD0FE3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="6020" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1440" yWindow="3680" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -231,6 +231,9 @@
   <si>
     <t>[Rstudio Cheatsheets](https://posit.co/resources/cheatsheets/)  
 [How to read R help pages](https://socviz.co/appendix.html#a-little-more-about-r)</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,6 +706,9 @@
       </c>
       <c r="E3" t="s">
         <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD88382-E8B9-CB44-BBBE-3ADAD0FE3DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A927F1-2BE3-6542-B97F-92473EFCBF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="3680" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -234,6 +234,14 @@
   </si>
   <si>
     <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t>R9NtaDEBOgs</t>
+  </si>
+  <si>
+    <t>[Generalization and what to do with a non-representative sample](https://statmodeling.stat.columbia.edu/2021/07/16/literary-digest/)  
+[Roosevelt Predicted to Win: Revisiting the 1936 Literary Digest Poll](https://www.degruyter.com/document/doi/10.1515/spp-2016-0006/html)  
+[Common statistical tests are linear models ](https://lindeloev.github.io/tests-as-linear/)</t>
   </si>
 </sst>
 </file>
@@ -627,7 +635,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -691,7 +699,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45539</v>
       </c>
@@ -707,8 +715,14 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="G3" t="s">
         <v>65</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A927F1-2BE3-6542-B97F-92473EFCBF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEEE6D3-774B-E248-91C9-7314B140FB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="3680" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -242,6 +242,12 @@
     <t>[Generalization and what to do with a non-representative sample](https://statmodeling.stat.columbia.edu/2021/07/16/literary-digest/)  
 [Roosevelt Predicted to Win: Revisiting the 1936 Literary Digest Poll](https://www.degruyter.com/document/doi/10.1515/spp-2016-0006/html)  
 [Common statistical tests are linear models ](https://lindeloev.github.io/tests-as-linear/)</t>
+  </si>
+  <si>
+    <t>QT0O3VM92iM</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data1</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,7 +747,12 @@
       <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>69</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEEE6D3-774B-E248-91C9-7314B140FB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514AD60-4747-AA40-905E-8A39C1BFF628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3680" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="6560" yWindow="3720" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>02-Summarizing_Data1</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data2</t>
+  </si>
+  <si>
+    <t>NjBZAfgcM_g</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -770,6 +776,12 @@
       </c>
       <c r="E5" t="s">
         <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
       </c>
       <c r="H5" s="5"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514AD60-4747-AA40-905E-8A39C1BFF628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CEF60-1954-2243-AA5A-F63E82E07718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="3720" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>NjBZAfgcM_g</t>
+  </si>
+  <si>
+    <t>03-Probability</t>
+  </si>
+  <si>
+    <t>daeJXXVoiyg</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,7 +807,12 @@
       <c r="E6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CEF60-1954-2243-AA5A-F63E82E07718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47145B-13BC-694F-AC35-B3850B8A97A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>daeJXXVoiyg</t>
+  </si>
+  <si>
+    <t>04-Distributions</t>
+  </si>
+  <si>
+    <t>43RnjttGAyw</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,6 +836,12 @@
       </c>
       <c r="E7" t="s">
         <v>54</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
       </c>
       <c r="H7" s="5"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47145B-13BC-694F-AC35-B3850B8A97A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CA264-CC41-F249-B915-2E673E164DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>43RnjttGAyw</t>
+  </si>
+  <si>
+    <t>86sum8jxsUs</t>
+  </si>
+  <si>
+    <t>05-Foundation_for_Inference</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -860,6 +866,12 @@
       </c>
       <c r="E8" t="s">
         <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
       </c>
       <c r="H8" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70CA264-CC41-F249-B915-2E673E164DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA6F7D8-9990-C44C-B267-EB39571C530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>05-Foundation_for_Inference</t>
+  </si>
+  <si>
+    <t>cYXufQwjm5Y</t>
+  </si>
+  <si>
+    <t>06-Inference_for_Categorical_Data</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -890,6 +896,12 @@
       </c>
       <c r="E9" t="s">
         <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
       </c>
       <c r="H9" s="4"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA6F7D8-9990-C44C-B267-EB39571C530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EBE3A5-DA7B-5F4D-A3A5-AC406FB91005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>06-Inference_for_Categorical_Data</t>
+  </si>
+  <si>
+    <t>07-Inference_for_Numerical_Data</t>
+  </si>
+  <si>
+    <t>UnO0xjn2EWw</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,6 +926,12 @@
       </c>
       <c r="E10" t="s">
         <v>57</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
       </c>
       <c r="H10" s="4"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EBE3A5-DA7B-5F4D-A3A5-AC406FB91005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8CF7F-6F5D-5542-99A5-F91ABD41EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>Maximum Likelihood Estimation</t>
-  </si>
-  <si>
-    <t>Predictive Modeling</t>
   </si>
   <si>
     <t>NO MEETUP - Thanksgiving</t>
@@ -284,6 +281,15 @@
   </si>
   <si>
     <t>UnO0xjn2EWw</t>
+  </si>
+  <si>
+    <t>Linear Regression Part 2</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression</t>
+  </si>
+  <si>
+    <t>ObdLqXN34K8</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
@@ -732,13 +738,13 @@
         <v>37</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="153" x14ac:dyDescent="0.2">
@@ -755,16 +761,16 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -781,13 +787,13 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
         <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -805,13 +811,13 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="5"/>
     </row>
@@ -829,13 +835,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -853,13 +859,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -877,13 +883,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -901,13 +907,13 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
         <v>78</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -925,13 +931,13 @@
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -946,10 +952,16 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -964,10 +976,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -982,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -1000,7 +1012,10 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -1009,7 +1024,7 @@
         <v>45623</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -1027,7 +1042,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF8CF7F-6F5D-5542-99A5-F91ABD41EE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3043D-35B2-934D-AD1C-8D522DBCE07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>ObdLqXN34K8</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression2</t>
+  </si>
+  <si>
+    <t>N9ZjNjEvd1k</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,6 +986,12 @@
       </c>
       <c r="E12" t="s">
         <v>57</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
       </c>
       <c r="H12" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D3043D-35B2-934D-AD1C-8D522DBCE07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D91DC7-6283-A344-8D64-76F75B2358F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>N9ZjNjEvd1k</t>
+  </si>
+  <si>
+    <t>09-Logistic_Regression</t>
+  </si>
+  <si>
+    <t>33NnEPaz83A</t>
   </si>
 </sst>
 </file>
@@ -1011,6 +1017,12 @@
       <c r="E13" t="s">
         <v>58</v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D91DC7-6283-A344-8D64-76F75B2358F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9F809D-CC4E-884F-BB0B-BC7D2AE574AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>33NnEPaz83A</t>
+  </si>
+  <si>
+    <t>09-Multiple_Regression</t>
+  </si>
+  <si>
+    <t>umHSr_lWYDg</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,6 +1046,12 @@
       </c>
       <c r="E14" t="s">
         <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
       </c>
       <c r="H14" s="8"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9F809D-CC4E-884F-BB0B-BC7D2AE574AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FB6DB-FACD-4A4B-A304-0398F31C776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>umHSr_lWYDg</t>
+  </si>
+  <si>
+    <t>10-Bayesian_Analysis</t>
+  </si>
+  <si>
+    <t>3ynuXTbEqkc</t>
   </si>
 </sst>
 </file>
@@ -701,7 +707,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1079,6 +1085,12 @@
       </c>
       <c r="E16" t="s">
         <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
       </c>
       <c r="H16" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/SPS Dropbox/Jason Bryer/Teaching/DATA606 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FB6DB-FACD-4A4B-A304-0398F31C776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBCD77-58E1-B848-9785-15077EEACEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="7640" windowWidth="28800" windowHeight="15960" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>3ynuXTbEqkc</t>
+  </si>
+  <si>
+    <t>11-Final_Meetup</t>
+  </si>
+  <si>
+    <t>kMBPWYg9q0k</t>
   </si>
 </sst>
 </file>
@@ -707,7 +713,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1106,6 +1112,12 @@
       </c>
       <c r="D17" t="s">
         <v>36</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>92</v>
       </c>
       <c r="H17" s="4"/>
     </row>
